--- a/auxiliarycolorlist.xlsx
+++ b/auxiliarycolorlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A499"/>
+  <dimension ref="A1:A481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,3486 +431,3360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127 55 30</t>
+          <t>211 207 213</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>212 214 214</t>
+          <t>134 104 113</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>195 150 87</t>
+          <t>128 25 30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>138 148 178</t>
+          <t>71 41 153</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>84 97 136</t>
+          <t>26 16 131</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>42 45 80</t>
+          <t>100 92 225</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>115 120 202</t>
+          <t>81 81 85</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>189 200 208</t>
+          <t>125 128 134</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>82 75 71</t>
+          <t>158 165 173</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>50 139 220</t>
+          <t>218 220 211</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>47 71 167</t>
+          <t>221 123 160</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>145 131 122</t>
+          <t>126 37 72</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>56 116 161</t>
+          <t>170 180 201</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>164 211 233</t>
+          <t>44 34 45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>109 159 188</t>
+          <t>109 104 204</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>81 108 111</t>
+          <t>143 133 145</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19 26 33</t>
+          <t>220 233 232</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21 70 111</t>
+          <t>101 102 118</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>43 27 125</t>
+          <t>218 223 234</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>99 98 94</t>
+          <t>156 121 206</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>90 116 191</t>
+          <t>58 24 77</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>150 151 147</t>
+          <t>172 44 51</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>206 205 206</t>
+          <t>100 65 144</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>172 71 15</t>
+          <t>50 53 214</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>141 157 164</t>
+          <t>122 66 183</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>65 61 57</t>
+          <t>161 109 130</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>173 206 227</t>
+          <t>216 197 149</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>32 70 140</t>
+          <t>85 31 67</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>110 107 96</t>
+          <t>114 65 96</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>82 132 192</t>
+          <t>209 136 207</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>109 137 217</t>
+          <t>208 210 215</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>44 65 177</t>
+          <t>207 157 156</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>133 135 150</t>
+          <t>131 129 142</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>80 78 82</t>
+          <t>98 88 89</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>179 84 25</t>
+          <t>38 33 34</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>192 204 226</t>
+          <t>162 93 92</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>112 135 205</t>
+          <t>156 147 147</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>173 171 122</t>
+          <t>92 77 222</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>61 62 174</t>
+          <t>206 212 214</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>206 213 225</t>
+          <t>44 24 42</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>113 108 88</t>
+          <t>52 34 158</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>66 62 60</t>
+          <t>108 96 107</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>122 110 180</t>
+          <t>110 106 108</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>150 62 21</t>
+          <t>212 218 209</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>191 160 129</t>
+          <t>161 157 139</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>208 202 209</t>
+          <t>51 47 179</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>61 52 101</t>
+          <t>109 113 227</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>182 113 54</t>
+          <t>36 25 37</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>48 102 193</t>
+          <t>39 36 53</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>187 117 89</t>
+          <t>53 22 145</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>134 141 183</t>
+          <t>95 70 120</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>129 61 52</t>
+          <t>162 174 183</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>62 69 117</t>
+          <t>62 58 78</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>201 211 228</t>
+          <t>202 214 219</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>83 81 110</t>
+          <t>134 122 129</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>66 66 208</t>
+          <t>111 90 99</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>159 151 115</t>
+          <t>159 162 172</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>114 134 196</t>
+          <t>215 213 219</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>179 89 26</t>
+          <t>218 143 154</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>187 201 223</t>
+          <t>52 35 42</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>80 65 52</t>
+          <t>27 15 120</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>140 109 74</t>
+          <t>78 53 161</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>195 215 224</t>
+          <t>133 107 225</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>77 104 134</t>
+          <t>200 117 110</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>189 160 126</t>
+          <t>207 204 229</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>122 156 182</t>
+          <t>121 37 39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>143 151 176</t>
+          <t>161 168 173</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>42 66 131</t>
+          <t>86 89 206</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>186 153 96</t>
+          <t>208 89 135</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>145 58 25</t>
+          <t>85 69 77</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>218 212 202</t>
+          <t>219 225 219</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>96 95 98</t>
+          <t>118 124 130</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>151 186 220</t>
+          <t>109 78 118</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>163 146 114</t>
+          <t>221 105 108</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>52 52 125</t>
+          <t>204 188 233</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>109 111 191</t>
+          <t>157 28 32</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>97 81 64</t>
+          <t>54 32 62</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>72 114 146</t>
+          <t>112 79 219</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>202 217 226</t>
+          <t>136 124 123</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>165 173 171</t>
+          <t>85 52 169</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>128 113 72</t>
+          <t>83 72 73</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>36 31 27</t>
+          <t>202 224 220</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>57 39 136</t>
+          <t>51 19 113</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>68 67 62</t>
+          <t>138 98 219</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>188 141 31</t>
+          <t>211 204 188</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>184 196 221</t>
+          <t>138 135 137</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>46 36 34</t>
+          <t>160 85 24</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>134 159 179</t>
+          <t>41 35 30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>103 90 167</t>
+          <t>77 66 62</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>195 176 116</t>
+          <t>227 162 49</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>214 218 219</t>
+          <t>237 243 245</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>193 178 145</t>
+          <t>165 177 182</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>81 85 156</t>
+          <t>84 46 128</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>121 121 115</t>
+          <t>79 76 85</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>142 160 194</t>
+          <t>201 211 216</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>74 68 69</t>
+          <t>53 49 55</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>166 97 76</t>
+          <t>178 163 188</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>198 207 220</t>
+          <t>223 223 226</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>83 65 73</t>
+          <t>136 128 132</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>37 63 175</t>
+          <t>111 49 85</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>128 159 195</t>
+          <t>97 58 203</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>112 89 153</t>
+          <t>63 33 58</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>144 187 209</t>
+          <t>79 37 144</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>50 55 199</t>
+          <t>150 158 168</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>133 142 155</t>
+          <t>76 72 84</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>26 28 32</t>
+          <t>238 242 244</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>102 108 96</t>
+          <t>194 204 208</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>217 220 229</t>
+          <t>50 47 55</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>53 77 135</t>
+          <t>194 182 153</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>55 43 46</t>
+          <t>228 223 207</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>126 116 103</t>
+          <t>159 145 117</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>254 254 255</t>
+          <t>121 108 89</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>195 207 212</t>
+          <t>84 72 64</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>144 156 182</t>
+          <t>156 114 205</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>107 128 164</t>
+          <t>76 73 75</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>174 185 189</t>
+          <t>224 143 27</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>64 80 120</t>
+          <t>149 86 26</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>203 212 214</t>
+          <t>213 229 223</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>34 40 57</t>
+          <t>136 144 152</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>254 254 254</t>
+          <t>76 62 174</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>253 254 254</t>
+          <t>147 154 141</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>25 26 34</t>
+          <t>28 29 166</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>80 95 132</t>
+          <t>74 81 217</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>191 202 206</t>
+          <t>56 50 58</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>46 53 85</t>
+          <t>98 98 97</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>133 152 178</t>
+          <t>213 225 217</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>65 70 73</t>
+          <t>68 65 55</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>183 215 228</t>
+          <t>161 161 138</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>37 56 131</t>
+          <t>193 193 170</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>61 129 200</t>
+          <t>226 229 207</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>104 128 137</t>
+          <t>130 129 110</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>131 170 196</t>
+          <t>99 97 84</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>103 119 156</t>
+          <t>58 38 54</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>156 170 194</t>
+          <t>132 124 131</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>52 60 106</t>
+          <t>172 160 172</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>211 222 227</t>
+          <t>102 95 104</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>182 153 117</t>
+          <t>217 218 219</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>108 87 78</t>
+          <t>104 75 211</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>61 55 57</t>
+          <t>150 85 23</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>164 148 114</t>
+          <t>223 146 37</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>78 102 158</t>
+          <t>84 73 184</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>193 212 218</t>
+          <t>127 119 117</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>134 176 202</t>
+          <t>73 70 72</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>120 99 73</t>
+          <t>202 220 219</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>98 79 70</t>
+          <t>121 88 102</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>157 132 82</t>
+          <t>55 28 144</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>90 40 183</t>
+          <t>155 143 168</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>149 166 202</t>
+          <t>215 221 238</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>185 202 225</t>
+          <t>105 72 212</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>114 134 166</t>
+          <t>39 21 31</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>44 60 118</t>
+          <t>139 68 220</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>123 118 96</t>
+          <t>170 138 136</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>122 156 221</t>
+          <t>211 220 223</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>161 171 166</t>
+          <t>81 30 155</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>82 102 178</t>
+          <t>88 40 54</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>214 225 225</t>
+          <t>134 77 87</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>124 155 184</t>
+          <t>73 50 186</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>183 211 224</t>
+          <t>133 122 136</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>105 113 115</t>
+          <t>115 90 229</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>64 177 230</t>
+          <t>81 73 81</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>47 60 105</t>
+          <t>201 210 223</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>51 101 181</t>
+          <t>49 24 124</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>74 83 83</t>
+          <t>104 52 91</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>65 101 149</t>
+          <t>82 84 87</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>182 195 203</t>
+          <t>106 77 213</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>216 225 228</t>
+          <t>159 147 156</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>123 147 166</t>
+          <t>60 42 57</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>29 41 61</t>
+          <t>210 209 213</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>34 38 44</t>
+          <t>67 46 157</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>36 62 131</t>
+          <t>91 60 90</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>175 193 206</t>
+          <t>134 91 125</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>101 131 164</t>
+          <t>170 136 167</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1 2 2</t>
+          <t>109 80 223</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>77 91 93</t>
+          <t>201 212 222</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>60 66 91</t>
+          <t>130 133 141</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>32 33 40</t>
+          <t>79 62 85</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>89 106 144</t>
+          <t>44 39 45</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>199 207 210</t>
+          <t>202 211 215</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>155 170 179</t>
+          <t>171 181 187</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>252 253 253</t>
+          <t>245 248 249</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>21 22 26</t>
+          <t>165 51 69</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>54 65 143</t>
+          <t>209 198 210</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>199 208 212</t>
+          <t>56 28 37</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>51 55 64</t>
+          <t>140 121 127</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>118 144 181</t>
+          <t>138 67 224</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>99 109 112</t>
+          <t>227 113 125</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>115 67 43</t>
+          <t>98 169 214</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>153 124 100</t>
+          <t>56 45 154</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>168 194 213</t>
+          <t>232 226 215</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>95 141 206</t>
+          <t>223 135 27</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>75 78 88</t>
+          <t>170 79 8</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>52 57 200</t>
+          <t>110 71 45</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>42 37 156</t>
+          <t>90 83 93</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>79 79 218</t>
+          <t>205 227 221</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>139 132 183</t>
+          <t>111 66 200</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>185 64 82</t>
+          <t>68 32 140</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>86 70 77</t>
+          <t>149 147 151</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>185 197 229</t>
+          <t>145 97 234</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>141 168 192</t>
+          <t>127 137 227</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>196 214 223</t>
+          <t>219 223 218</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>85 84 83</t>
+          <t>48 30 39</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>65 39 150</t>
+          <t>165 151 159</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>97 127 159</t>
+          <t>81 70 157</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>147 136 121</t>
+          <t>122 106 109</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>201 223 165</t>
+          <t>43 33 44</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>51 66 204</t>
+          <t>134 129 148</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>105 118 164</t>
+          <t>102 100 116</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>40 41 56</t>
+          <t>217 231 231</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>145 156 215</t>
+          <t>170 175 191</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>152 151 94</t>
+          <t>112 111 213</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>53 46 66</t>
+          <t>125 123 113</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>98 97 124</t>
+          <t>130 26 30</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>66 85 182</t>
+          <t>84 81 210</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>21 20 32</t>
+          <t>194 206 216</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>38 40 125</t>
+          <t>42 27 60</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>147 161 196</t>
+          <t>193 61 56</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>134 152 179</t>
+          <t>130 61 13</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>32 86 145</t>
+          <t>206 123 33</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>65 137 197</t>
+          <t>96 87 178</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>95 91 92</t>
+          <t>123 185 220</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>183 166 105</t>
+          <t>228 226 227</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>191 212 223</t>
+          <t>50 38 117</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>25 29 38</t>
+          <t>146 153 169</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>171 186 193</t>
+          <t>200 211 215</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>228 234 236</t>
+          <t>65 63 80</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>84 95 101</t>
+          <t>90 86 110</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>66 128 196</t>
+          <t>37 35 48</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20 53 141</t>
+          <t>56 30 155</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>192 203 206</t>
+          <t>175 104 92</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>124 150 169</t>
+          <t>59 48 173</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>29 40 50</t>
+          <t>209 209 212</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>246 248 249</t>
+          <t>119 24 23</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>71 113 169</t>
+          <t>115 105 226</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>57 81 111</t>
+          <t>44 18 43</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>104 110 108</t>
+          <t>31 25 40</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>51 94 212</t>
+          <t>40 31 156</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>193 210 225</t>
+          <t>106 99 124</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>135 159 185</t>
+          <t>198 200 216</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>38 36 152</t>
+          <t>94 86 219</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>60 63 62</t>
+          <t>157 44 46</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>54 60 98</t>
+          <t>150 77 18</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>125 114 104</t>
+          <t>218 138 38</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>169 176 187</t>
+          <t>51 38 126</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>24 24 30</t>
+          <t>126 182 220</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>78 54 46</t>
+          <t>97 81 189</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>96 116 163</t>
+          <t>234 230 230</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>207 211 221</t>
+          <t>206 197 221</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>80 62 202</t>
+          <t>115 97 121</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>56 30 145</t>
+          <t>58 38 65</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>161 145 174</t>
+          <t>87 45 174</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>59 149 208</t>
+          <t>139 96 221</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>103 94 99</t>
+          <t>54 22 124</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>154 177 199</t>
+          <t>132 90 29</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>197 221 232</t>
+          <t>78 68 89</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>65 91 137</t>
+          <t>108 108 157</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>108 140 173</t>
+          <t>181 190 193</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>52 58 70</t>
+          <t>209 220 224</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>121 112 100</t>
+          <t>51 45 53</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>196 152 75</t>
+          <t>201 213 216</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>140 133 137</t>
+          <t>122 121 133</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>213 206 183</t>
+          <t>59 51 58</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>136 81 35</t>
+          <t>253 254 254</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>59 59 128</t>
+          <t>171 182 183</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>64 142 203</t>
+          <t>82 77 89</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>204 169 139</t>
+          <t>78 78 88</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>125 135 115</t>
+          <t>50 48 58</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>208 221 223</t>
+          <t>197 210 215</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>63 91 158</t>
+          <t>243 247 249</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>134 166 197</t>
+          <t>71 23 144</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>84 79 64</t>
+          <t>158 169 175</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>195 137 70</t>
+          <t>142 110 118</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>94 85 72</t>
+          <t>30 19 23</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>208 208 210</t>
+          <t>206 120 166</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>136 147 161</t>
+          <t>101 73 82</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>59 125 208</t>
+          <t>182 183 159</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>50 62 143</t>
+          <t>226 232 212</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>96 120 185</t>
+          <t>110 93 227</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>27 32 44</t>
+          <t>214 214 210</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>94 103 120</t>
+          <t>174 108 90</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>150 170 202</t>
+          <t>133 24 22</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>62 57 70</t>
+          <t>65 43 168</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>47 54 153</t>
+          <t>29 14 124</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>182 182 182</t>
+          <t>84 49 158</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>134 152 160</t>
+          <t>109 110 115</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>217 224 227</t>
+          <t>123 84 209</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>106 112 96</t>
+          <t>200 219 229</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>37 29 29</t>
+          <t>45 41 51</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>111 72 195</t>
+          <t>145 149 156</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>113 128 177</t>
+          <t>226 229 213</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>203 211 223</t>
+          <t>71 47 174</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>173 70 33</t>
+          <t>96 167 227</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>70 95 142</t>
+          <t>210 128 22</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>50 59 83</t>
+          <t>137 71 14</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>162 166 190</t>
+          <t>118 132 104</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>255 255 255</t>
+          <t>199 216 215</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>39 44 45</t>
+          <t>107 92 99</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>88 134 197</t>
+          <t>38 27 32</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>177 203 215</t>
+          <t>144 156 156</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>72 84 101</t>
+          <t>108 90 215</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>128 141 126</t>
+          <t>182 124 124</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>222 228 230</t>
+          <t>221 228 230</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>176 190 195</t>
+          <t>192 199 201</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>98 141 174</t>
+          <t>159 168 171</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>27 33 49</t>
+          <t>113 116 124</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>79 94 97</t>
+          <t>72 58 79</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>23 80 161</t>
+          <t>40 36 40</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>44 143 198</t>
+          <t>255 255 255</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>167 207 223</t>
+          <t>83 76 94</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>35 76 154</t>
+          <t>135 90 37</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>90 105 109</t>
+          <t>161 168 175</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>122 144 174</t>
+          <t>204 216 218</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>49 54 64</t>
+          <t>52 46 54</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>84 61 51</t>
+          <t>93 59 216</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>42 47 85</t>
+          <t>144 133 139</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20 15 19</t>
+          <t>52 27 46</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>109 107 115</t>
+          <t>65 41 131</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>191 192 196</t>
+          <t>201 194 210</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>136 146 168</t>
+          <t>103 93 99</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>165 176 166</t>
+          <t>77 50 175</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>199 213 219</t>
+          <t>150 161 181</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>91 74 185</t>
+          <t>209 228 238</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>114 122 118</t>
+          <t>53 25 119</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>131 152 200</t>
+          <t>116 86 219</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>45 40 36</t>
+          <t>114 83 94</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>73 77 153</t>
+          <t>159 169 141</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>191 202 217</t>
+          <t>70 58 62</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>196 175 100</t>
+          <t>43 48 184</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>139 140 171</t>
+          <t>212 223 213</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>93 127 223</t>
+          <t>114 118 97</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>141 114 66</t>
+          <t>88 97 228</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>143 164 183</t>
+          <t>115 77 131</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>190 212 225</t>
+          <t>173 39 38</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>125 122 110</t>
+          <t>103 95 227</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>57 70 118</t>
+          <t>217 211 226</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>76 73 64</t>
+          <t>57 24 61</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>94 123 161</t>
+          <t>48 46 184</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>68 59 69</t>
+          <t>77 54 58</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>135 111 95</t>
+          <t>123 105 104</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>71 93 216</t>
+          <t>116 98 185</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>137 148 202</t>
+          <t>168 173 162</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>209 208 212</t>
+          <t>214 224 217</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>40 43 167</t>
+          <t>57 43 110</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>44 29 137</t>
+          <t>142 78 151</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>133 175 210</t>
+          <t>217 219 204</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>139 128 147</t>
+          <t>155 158 143</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>211 212 222</t>
+          <t>197 122 206</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>79 73 71</t>
+          <t>85 86 92</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>44 82 200</t>
+          <t>93 34 96</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>159 177 189</t>
+          <t>237 230 230</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>48 75 114</t>
+          <t>149 81 77</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>252 253 254</t>
+          <t>87 69 105</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>202 211 214</t>
+          <t>133 129 206</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>31 40 51</t>
+          <t>106 51 48</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>89 122 164</t>
+          <t>190 124 121</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>57 71 145</t>
+          <t>46 30 32</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>113 156 208</t>
+          <t>122 75 192</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>140 153 148</t>
+          <t>189 170 179</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>89 101 101</t>
+          <t>161 139 140</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>34 40 42</t>
+          <t>118 102 105</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>207 218 224</t>
+          <t>228 212 213</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>76 76 70</t>
+          <t>86 86 220</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>160 175 182</t>
+          <t>112 95 102</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>204 222 226</t>
+          <t>65 51 65</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>134 134 115</t>
+          <t>159 150 137</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>98 132 191</t>
+          <t>198 202 207</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>56 63 160</t>
+          <t>40 35 164</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>184 190 216</t>
+          <t>52 26 36</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>59 99 166</t>
+          <t>129 126 222</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>68 67 70</t>
+          <t>164 155 155</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>129 118 83</t>
+          <t>115 107 111</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>143 146 168</t>
+          <t>215 220 216</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>76 155 220</t>
+          <t>82 67 161</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>169 202 219</t>
+          <t>252 252 252</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>184 145 103</t>
+          <t>151 151 151</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>77 104 207</t>
+          <t>198 205 206</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>133 148 171</t>
+          <t>66 60 59</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>38 33 45</t>
+          <t>103 92 91</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>125 98 96</t>
+          <t>41 35 34</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>83 77 72</t>
+          <t>54 47 178</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>161 168 155</t>
+          <t>112 108 220</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>119 124 111</t>
+          <t>217 216 211</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>156 163 219</t>
+          <t>117 98 99</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>211 218 219</t>
+          <t>169 158 138</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>101 111 170</t>
+          <t>70 49 65</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>191 211 221</t>
+          <t>111 23 32</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>180 157 116</t>
+          <t>169 58 55</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>125 146 176</t>
+          <t>112 88 215</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>48 150 205</t>
+          <t>43 19 59</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>60 65 159</t>
+          <t>210 206 228</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>86 93 86</t>
+          <t>62 42 170</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>77 73 99</t>
+          <t>78 72 73</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>49 133 222</t>
+          <t>46 41 40</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>126 129 152</t>
+          <t>194 202 204</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>182 195 214</t>
+          <t>252 253 253</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>154 85 44</t>
+          <t>106 100 102</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>43 52 181</t>
+          <t>146 155 160</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>167 69 22</t>
+          <t>192 189 165</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>51 66 131</t>
+          <t>205 100 105</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>149 137 114</t>
+          <t>125 34 42</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>209 207 206</t>
+          <t>210 216 220</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>72 68 57</t>
+          <t>144 132 144</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>119 146 192</t>
+          <t>90 74 82</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>97 108 124</t>
+          <t>140 77 36</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>79 70 67</t>
+          <t>221 223 212</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>173 174 178</t>
+          <t>187 134 104</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>137 135 137</t>
+          <t>63 42 45</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>125 166 198</t>
+          <t>240 161 40</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>210 220 225</t>
+          <t>92 72 101</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>51 83 113</t>
+          <t>92 74 99</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>81 74 66</t>
+          <t>119 111 117</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>176 208 227</t>
+          <t>203 212 212</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>124 161 185</t>
+          <t>61 48 60</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>21 48 78</t>
+          <t>149 147 145</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>45 37 32</t>
+          <t>128 88 170</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>142 170 197</t>
+          <t>132 97 229</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>103 83 62</t>
+          <t>75 56 76</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>88 124 186</t>
+          <t>77 52 199</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>159 140 117</t>
+          <t>122 108 127</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>199 210 217</t>
+          <t>213 223 233</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>62 79 127</t>
+          <t>40 18 143</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>79 122 201</t>
+          <t>252 254 254</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>160 123 88</t>
+          <t>129 141 142</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>152 113 197</t>
+          <t>66 64 81</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>84 68 72</t>
+          <t>36 33 40</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>175 194 202</t>
+          <t>201 215 217</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>53 37 181</t>
+          <t>176 189 191</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>31 52 168</t>
+          <t>169 118 210</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>148 133 185</t>
+          <t>213 221 201</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>198 193 226</t>
+          <t>117 95 101</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>61 103 212</t>
+          <t>106 59 151</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>65 59 68</t>
+          <t>71 50 70</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>114 85 129</t>
+          <t>163 152 141</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>112 119 113</t>
+          <t>65 62 71</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>187 215 225</t>
+          <t>255 255 255</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>54 96 150</t>
+          <t>82 78 91</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>97 150 198</t>
+          <t>49 44 49</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>58 66 71</t>
+          <t>148 157 160</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>154 166 167</t>
+          <t>200 210 215</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>61 69 66</t>
+          <t>116 90 99</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>90 139 189</t>
+          <t>69 41 54</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>42 78 158</t>
+          <t>225 214 205</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>166 207 230</t>
+          <t>89 69 73</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>143 166 165</t>
+          <t>149 125 119</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>101 116 111</t>
+          <t>186 164 153</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>75 67 78</t>
+          <t>110 102 109</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>130 124 144</t>
+          <t>50 35 131</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>87 118 215</t>
+          <t>210 215 217</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>165 81 25</t>
+          <t>74 63 73</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>39 51 172</t>
+          <t>158 148 151</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>180 196 224</t>
+          <t>82 70 216</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>57 141 227</t>
+          <t>218 225 225</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>80 81 86</t>
+          <t>79 81 221</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>122 124 122</t>
+          <t>150 133 187</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>44 86 194</t>
+          <t>164 59 52</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>179 190 197</t>
+          <t>34 28 156</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>190 202 93</t>
+          <t>88 70 113</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>80 89 182</t>
+          <t>150 139 149</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>143 157 163</t>
+          <t>179 199 201</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>108 136 216</t>
+          <t>216 235 236</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>169 202 218</t>
+          <t>62 51 53</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>93 71 72</t>
+          <t>209 194 104</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>132 110 95</t>
+          <t>220 148 175</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>36 73 153</t>
+          <t>182 165 153</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>147 166 183</t>
+          <t>88 62 73</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>106 124 149</t>
+          <t>217 225 221</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>70 146 218</t>
+          <t>147 102 105</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>190 215 228</t>
+          <t>81 69 141</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>92 88 78</t>
+          <t>127 119 209</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>129 132 135</t>
+          <t>164 167 160</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>136 84 212</t>
+          <t>127 120 208</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>218 221 223</t>
+          <t>75 56 75</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>78 37 142</t>
+          <t>120 103 112</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>169 174 178</t>
+          <t>81 64 144</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>89 85 85</t>
+          <t>214 221 216</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>177 193 104</t>
+          <t>206 80 65</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>66 64 62</t>
+          <t>97 69 127</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>181 200 217</t>
+          <t>98 92 225</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>40 52 174</t>
+          <t>213 218 217</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>118 116 99</t>
+          <t>42 20 71</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>89 127 207</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>121 119 111</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>79 77 66</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>206 214 217</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>97 132 198</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>45 59 140</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>168 165 158</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>113 136 132</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>126 172 216</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>55 138 179</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>44 71 126</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>81 79 70</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>98 84 192</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>175 151 95</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>127 105 73</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>187 206 228</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>87 108 180</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>61 61 76</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>136 161 202</t>
+          <t>143 28 29</t>
         </is>
       </c>
     </row>
